--- a/data/minsalud_casosdpto.xlsx
+++ b/data/minsalud_casosdpto.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572CD967-BD6F-471C-A5B1-1C55542F987C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F96DB-510B-4A95-A4B4-C684612A9EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
+    <workbookView xWindow="8790" yWindow="645" windowWidth="9240" windowHeight="9720" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Dpto" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfico" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -423,7 +420,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -1599,7 +1596,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,14 +1648,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <v>96639</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E10" si="0">+C5/D5*100000</f>
-        <v>6.2086735169031133</v>
+        <v>7.2434524363869661</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1727,14 +1724,14 @@
       </c>
       <c r="C10" s="8">
         <f>+SUM(C4:C9)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8">
         <v>1694656</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>1.7112617545979831</v>
+        <v>1.7702707806186035</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">

--- a/data/minsalud_casosdpto.xlsx
+++ b/data/minsalud_casosdpto.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichi\Documents\COVID-19\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F96DB-510B-4A95-A4B4-C684612A9EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD80732-0944-4229-A204-D0B1EE8B8047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="645" windowWidth="9240" windowHeight="9720" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Dpto" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfico" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,7 +93,7 @@
     </r>
   </si>
   <si>
-    <t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 19 de abril de 2020, población proyectada 2020 e incidencia. Tucumán.</t>
+    <t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 22 de abril de 2020, población proyectada 2020 e incidencia. Tucumán.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
               <a:rPr lang="es-AR" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 19 de</a:t>
+              <a:t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 22 de</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="es-AR" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -417,13 +420,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1206,7 +1209,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{02015A09-64ED-4F06-8F0A-30FEAB735990}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="37" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1596,25 +1599,25 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="2"/>
+    <col min="4" max="4" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1628,52 +1631,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
         <v>605767</v>
       </c>
       <c r="E4" s="7">
         <f>+C4/D4*100000</f>
-        <v>2.806359540879579</v>
+        <v>2.9714395138724958</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>96639</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E10" si="0">+C5/D5*100000</f>
-        <v>7.2434524363869661</v>
+        <v>8.2782313558708189</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
         <v>150121</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>1.3322586446932807</v>
+        <v>2.6645172893865614</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>0.90981048647566709</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>1.5030587245043665</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1718,23 +1721,23 @@
         <v>1.3272104690361797</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
         <f>+SUM(C4:C9)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8">
         <v>1694656</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>1.7702707806186035</v>
+        <v>2.0063068847010839</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>

--- a/data/minsalud_casosdpto.xlsx
+++ b/data/minsalud_casosdpto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichi\Documents\COVID-19\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD80732-0944-4229-A204-D0B1EE8B8047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484E043-525E-49FE-B2E9-0C9C9F9CC3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Dpto" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     </r>
   </si>
   <si>
-    <t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 22 de abril de 2020, población proyectada 2020 e incidencia. Tucumán.</t>
+    <t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 25 de abril de 2020, población proyectada 2020 e incidencia. Tucumán.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
               <a:rPr lang="es-AR" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 22 de</a:t>
+              <a:t>Departamento de residencia de casos confirmados de COVID-19 hasta el día 25 de</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="es-AR" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1209,7 +1209,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{02015A09-64ED-4F06-8F0A-30FEAB735990}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="37" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1599,7 +1599,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/minsalud_casosdpto.xlsx
+++ b/data/minsalud_casosdpto.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichi\Documents\COVID-19\SALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484E043-525E-49FE-B2E9-0C9C9F9CC3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7642E58-B394-4DA2-9909-05073285F37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
+    <workbookView xWindow="2340" yWindow="1515" windowWidth="13590" windowHeight="10005" xr2:uid="{E5F3BE5B-5DAE-4D17-818C-C9C92F9EE0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Dpto" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfico" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -420,7 +417,7 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1599,25 +1596,25 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="2"/>
+    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1631,22 +1628,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
         <v>605767</v>
       </c>
       <c r="E4" s="7">
         <f>+C4/D4*100000</f>
-        <v>2.9714395138724958</v>
+        <v>3.1365194868654118</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>8.2782313558708189</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>2.6645172893865614</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>0.90981048647566709</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>1.5030587245043665</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1721,23 +1718,23 @@
         <v>1.3272104690361797</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
         <f>+SUM(C4:C9)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>1694656</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>2.0063068847010839</v>
+        <v>2.0653159107217038</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
